--- a/bitaksi_RFM_Segmentasyonu_Dummy_Data_1000.xlsx
+++ b/bitaksi_RFM_Segmentasyonu_Dummy_Data_1000.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kivateknoloji/Desktop/bitaksi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E9FB4-B5F5-F847-9558-BE251EF1ECF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA69E36-ACE2-F84C-B82F-5F1EE52539B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="23780" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$1001</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -1437,7 +1440,7 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15464,5 +15467,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>